--- a/ApiTesting/EvidenciaAPIs.xlsx
+++ b/ApiTesting/EvidenciaAPIs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/cacb292a451908e7/Desktop/ProyectoFinalQA/ApiTesting/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="11_F25DC773A252ABDACC10486F019D5CE45BDE58E6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6F338B2B-1583-4AD5-A924-76F54AE61C67}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="11_F25DC773A252ABDACC10486F019D5CE45BDE58E6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2420D3D3-EBC2-41B8-BE4B-BA59ED0DA30F}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="API01" sheetId="1" r:id="rId1"/>
@@ -26,10 +26,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -267,6 +263,55 @@
         <a:xfrm>
           <a:off x="0" y="0"/>
           <a:ext cx="14175178" cy="4963218"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>202010</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>105587</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6562F722-BC9D-5FB7-299B-0FD97C914471}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="14222810" cy="5820587"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -586,6 +631,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50051B6E-0FDB-4910-BE2B-21DBA6ED6DCA}">
   <dimension ref="A1"/>
   <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B36252D3-4B52-44B6-B442-EE9DA30B28AF}">
+  <dimension ref="A1"/>
+  <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -593,16 +651,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B36252D3-4B52-44B6-B442-EE9DA30B28AF}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>